--- a/biology/Botanique/Knock_at_the_Cabin/Knock_at_the_Cabin.xlsx
+++ b/biology/Botanique/Knock_at_the_Cabin/Knock_at_the_Cabin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Knock at the Cabin, ou La cabane isolée au Québec, est un film américain réalisé par M. Night Shyamalan, sorti en 2023.
 Il s'agit de l'adaptation du roman La Cabane aux confins du monde (The Cabin at the End of the World) de Paul G. Tremblay, publié en 2018.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eric et Andrew partent en vacances avec leur petite fille, Wen, dans un chalet reculé de Pennsylvanie. Peu de temps après leur arrivée, Wen est abordée par un homme, Léonard, qui lui explique qu'elle et ses parents doivent l'aider à sauver le monde. D'abord amusée, Wen court prévenir ses papas en voyant que trois autres inconnus, armés viennent dans leur direction. Les quatre étrangers entrent dans le chalet, provoquent une commotion cérébrale à Eric et attachent les deux adultes.
 Léonard et ses acolytes, Sabrina, Adriane et Redmond prétendent ne s'être jamais rencontrés auparavant et ne pas leur vouloir de mal. Tous ont été attirés par des visions et une force inconnue pour trouver la famille. Le groupe prétend que l'Apocalypse est imminente sauf si l'un des membres de leur famille se sacrifie. S'ils le font, l'Apocalypse s'arrêtera, dans le cas contraire, ils seront les seuls survivants.
@@ -549,7 +563,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Knock at the Cabin
@@ -571,7 +587,7 @@
 Langue originale : anglais
 Format : couleur
 Genre : thriller, horreur
-Dates de sortie[1] :
+Dates de sortie :
 France : 1er février 2023
 États-Unis : 3 février 2023
 Classification :
@@ -604,7 +620,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dave Bautista (VF : Serge Biavan ; VQ : Blaise Tardif) : Leonard
 Jonathan Groff (VF : Alexandre Gillet ; VQ : Gabriel Lessard) : Eric
@@ -643,13 +661,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-En septembre 2019, il est annoncé qu'Universal Pictures va distribuer les deux prochains films de M. Night Shyamalan[2]. En juillet 2021, le premier de ces deux films sort en salles : Old[3]. En interview pour la promotion de Old, le réalisateur indique travailler sur son prochain scénario adapté d'un roman, dont il a eu les droits[4]. Il explique alors en être à la moitié de la première ébauche[5]. Il avoue que ce scénario a été le plus rapide qu'il ait écrit dans sa carrière[6].
-En octobre 2021, le titre du film est dévoilé : Knock at the Cabin[7]. En décembre de la même année, des rumeurs sur un tournage en unique plan-séquence sont démenties par les représentants du cinéaste[8].
-Attribution des rôles
-En décembre 2021, Dave Bautista est annoncé[9],[10]. M. Night Shyamalan explique que c'est sa prestation dans Blade Runner 2049 qui l'a convaincu[11]. Début 2022, Rupert Grint, Nikki Amuka-Bird, Ben Aldridge et Jonathan Groff rejoignent eux aussi la distribution[12],[13].
-Tournage
-Le tournage débute le 19 avril 2022 à Comté de Burlington, dans le New Jersey[14],[15],[16] et s'achève presque deux mois plus tard, le 11 juin 2022[17].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 2019, il est annoncé qu'Universal Pictures va distribuer les deux prochains films de M. Night Shyamalan. En juillet 2021, le premier de ces deux films sort en salles : Old. En interview pour la promotion de Old, le réalisateur indique travailler sur son prochain scénario adapté d'un roman, dont il a eu les droits. Il explique alors en être à la moitié de la première ébauche. Il avoue que ce scénario a été le plus rapide qu'il ait écrit dans sa carrière.
+En octobre 2021, le titre du film est dévoilé : Knock at the Cabin. En décembre de la même année, des rumeurs sur un tournage en unique plan-séquence sont démenties par les représentants du cinéaste.
 </t>
         </is>
       </c>
@@ -675,14 +694,93 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En décembre 2021, Dave Bautista est annoncé,. M. Night Shyamalan explique que c'est sa prestation dans Blade Runner 2049 qui l'a convaincu. Début 2022, Rupert Grint, Nikki Amuka-Bird, Ben Aldridge et Jonathan Groff rejoignent eux aussi la distribution,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Knock_at_the_Cabin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Knock_at_the_Cabin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute le 19 avril 2022 à Comté de Burlington, dans le New Jersey et s'achève presque deux mois plus tard, le 11 juin 2022.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Knock_at_the_Cabin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Knock_at_the_Cabin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Critique
-En France, le site Allociné propose une moyenne de 3,2⁄5, fondée sur 26 critiques de presse[18].
-Box-office</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site Allociné propose une moyenne de 3,2⁄5, fondée sur 26 critiques de presse.
+</t>
         </is>
       </c>
     </row>
